--- a/design docs/Combat Units.xlsx
+++ b/design docs/Combat Units.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hex-trigger\design docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16037BD7-EAD4-41FE-A4A7-F39EE506B013}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBAE5C6-3488-468C-98A6-CE2C87F58EFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Combat Units" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -103,6 +112,93 @@
   </si>
   <si>
     <t>Hero Unit. Average Attack, High Defense, Low Speed, Low Range</t>
+  </si>
+  <si>
+    <t>Basic Ranged Unit. Average Attack, Low Defense, Average Speed, Average Range.</t>
+  </si>
+  <si>
+    <t>Sniper</t>
+  </si>
+  <si>
+    <t>Shooter</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>Cannoneer</t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>Gunner</t>
+  </si>
+  <si>
+    <t>Long Range Sniper. High Attack, Low Defense, Low Speed, High Range</t>
+  </si>
+  <si>
+    <t>Aggro Puller. Average Attack, High Defense, Low Speed, Low Range</t>
+  </si>
+  <si>
+    <t>Mid Range DPS. High Attack, Average Defense, Low Speed, Average Range</t>
+  </si>
+  <si>
+    <t>Scout/Attacker. Above Average Attack, Average Defense, High Speed, Low Range.</t>
+  </si>
+  <si>
+    <t>Scout</t>
+  </si>
+  <si>
+    <t>Ace</t>
+  </si>
+  <si>
+    <t>2-3 Hex Range</t>
+  </si>
+  <si>
+    <t>5+ Hex Range</t>
+  </si>
+  <si>
+    <t>3-4 Hex Range</t>
+  </si>
+  <si>
+    <t>1-2 Hex Range</t>
+  </si>
+  <si>
+    <t>Cost To Train</t>
+  </si>
+  <si>
+    <t>One Per Hex</t>
+  </si>
+  <si>
+    <t>M: 1
+F: 1
+In: 1
+Iso: 1</t>
+  </si>
+  <si>
+    <t>M: 1
+F: 10
+In: 10
+Iso: 10</t>
+  </si>
+  <si>
+    <t>M: 1
+F: 1
+In: 2
+Iso: 2</t>
+  </si>
+  <si>
+    <t>M: 1
+F: 2
+In: 3
+Iso: 3</t>
+  </si>
+  <si>
+    <t>M: 1
+F: 3
+In: 4
+Iso: 4</t>
   </si>
 </sst>
 </file>
@@ -156,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -171,6 +267,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -452,26 +555,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="24.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,139 +589,340 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>12</v>
+      <c r="F8" s="6">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
+      <c r="J10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
